--- a/RadarCharts.xlsx
+++ b/RadarCharts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/llewellyn/Documents/爱丁堡/课程/DS4D/Project/Radar Charts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/llewellyn/Desktop/DS4SMAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36392C1A-67FF-D14B-A932-EC84F1099E11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A891BE3-0380-7046-94CC-B6CD831F9A5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10860" yWindow="2440" windowWidth="27640" windowHeight="16940" xr2:uid="{3435C1E4-4700-7642-8627-B537DF119773}"/>
+    <workbookView xWindow="15180" yWindow="7680" windowWidth="27640" windowHeight="16940" xr2:uid="{3435C1E4-4700-7642-8627-B537DF119773}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>&lt;18</t>
   </si>
@@ -75,43 +75,10 @@
     <t>India</t>
   </si>
   <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
     <t>&lt;18(2)</t>
   </si>
   <si>
     <t>Country Name</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>United States of America</t>
   </si>
   <si>
     <t>Unknown</t>
@@ -130,18 +97,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -156,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -167,10 +128,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B3DB1B-AB97-5442-B16C-86B63EA80925}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A6" sqref="A6:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -499,13 +456,13 @@
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -526,7 +483,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1">
@@ -638,504 +595,152 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="5" customFormat="1">
-      <c r="A6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="5">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5">
-        <v>3</v>
-      </c>
-      <c r="D6" s="5">
-        <v>80</v>
-      </c>
-      <c r="E6" s="5">
-        <v>147</v>
-      </c>
-      <c r="F6" s="5">
-        <v>44</v>
-      </c>
-      <c r="G6" s="5">
+    <row r="6" spans="1:10" s="2" customFormat="1">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>70</v>
+      </c>
+      <c r="C6" s="2">
+        <v>70</v>
+      </c>
+      <c r="D6" s="2">
+        <v>70</v>
+      </c>
+      <c r="E6" s="2">
+        <v>70</v>
+      </c>
+      <c r="F6" s="2">
+        <v>70</v>
+      </c>
+      <c r="G6" s="2">
+        <v>70</v>
+      </c>
+      <c r="H6" s="2">
+        <v>70</v>
+      </c>
+      <c r="I6" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="2" customFormat="1">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>140</v>
+      </c>
+      <c r="C7" s="2">
+        <v>140</v>
+      </c>
+      <c r="D7" s="2">
+        <v>140</v>
+      </c>
+      <c r="E7" s="2">
+        <v>140</v>
+      </c>
+      <c r="F7" s="2">
+        <v>140</v>
+      </c>
+      <c r="G7" s="2">
+        <v>140</v>
+      </c>
+      <c r="H7" s="2">
+        <v>140</v>
+      </c>
+      <c r="I7" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="2" customFormat="1">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>210</v>
+      </c>
+      <c r="C8" s="2">
+        <v>210</v>
+      </c>
+      <c r="D8" s="2">
+        <v>210</v>
+      </c>
+      <c r="E8" s="2">
+        <v>210</v>
+      </c>
+      <c r="F8" s="2">
+        <v>210</v>
+      </c>
+      <c r="G8" s="2">
+        <v>210</v>
+      </c>
+      <c r="H8" s="2">
+        <v>210</v>
+      </c>
+      <c r="I8" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="2" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>280</v>
+      </c>
+      <c r="C9" s="2">
+        <v>280</v>
+      </c>
+      <c r="D9" s="2">
+        <v>280</v>
+      </c>
+      <c r="E9" s="2">
+        <v>280</v>
+      </c>
+      <c r="F9" s="2">
+        <v>280</v>
+      </c>
+      <c r="G9" s="2">
+        <v>280</v>
+      </c>
+      <c r="H9" s="2">
+        <v>280</v>
+      </c>
+      <c r="I9" s="2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="5">
-        <v>2</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="5" customFormat="1">
-      <c r="A7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="5">
-        <v>7</v>
-      </c>
-      <c r="C7" s="5">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5">
-        <v>236</v>
-      </c>
-      <c r="E7" s="5">
-        <v>120</v>
-      </c>
-      <c r="F7" s="5">
-        <v>28</v>
-      </c>
-      <c r="G7" s="5">
-        <v>8</v>
-      </c>
-      <c r="H7" s="5">
-        <v>4</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>2087</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="5" customFormat="1">
-      <c r="A8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="5">
-        <v>2</v>
-      </c>
-      <c r="C8" s="5">
-        <v>2</v>
-      </c>
-      <c r="D8" s="5">
-        <v>44</v>
-      </c>
-      <c r="E8" s="5">
-        <v>61</v>
-      </c>
-      <c r="F8" s="5">
-        <v>22</v>
-      </c>
-      <c r="G8" s="5">
-        <v>4</v>
-      </c>
-      <c r="H8" s="5">
-        <v>7</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="5" customFormat="1">
-      <c r="A9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="5">
-        <v>0</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
-        <v>54</v>
-      </c>
-      <c r="E9" s="5">
-        <v>34</v>
-      </c>
-      <c r="F9" s="5">
-        <v>2</v>
-      </c>
-      <c r="G9" s="5">
-        <v>2</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="5" customFormat="1">
-      <c r="A10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="5">
-        <v>22</v>
-      </c>
-      <c r="C10" s="5">
-        <v>22</v>
-      </c>
-      <c r="D10" s="5">
-        <v>66</v>
-      </c>
-      <c r="E10" s="5">
-        <v>163</v>
-      </c>
-      <c r="F10" s="5">
-        <v>152</v>
-      </c>
-      <c r="G10" s="5">
-        <v>172</v>
-      </c>
-      <c r="H10" s="5">
-        <v>118</v>
-      </c>
-      <c r="I10" s="5">
-        <v>72</v>
-      </c>
-      <c r="J10" s="5">
-        <v>15125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="5" customFormat="1">
-      <c r="A11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5">
-        <v>40</v>
-      </c>
-      <c r="E11" s="5">
-        <v>50</v>
-      </c>
-      <c r="F11" s="5">
-        <v>30</v>
-      </c>
-      <c r="G11" s="5">
-        <v>8</v>
-      </c>
-      <c r="H11" s="5">
-        <v>3</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="5" customFormat="1">
-      <c r="A12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="5">
-        <v>0</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5">
-        <v>13</v>
-      </c>
-      <c r="E12" s="5">
-        <v>21</v>
-      </c>
-      <c r="F12" s="5">
-        <v>5</v>
-      </c>
-      <c r="G12" s="5">
-        <v>5</v>
-      </c>
-      <c r="H12" s="5">
-        <v>2</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="5" customFormat="1">
-      <c r="A13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="5">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5">
-        <v>26</v>
-      </c>
-      <c r="E13" s="5">
-        <v>16</v>
-      </c>
-      <c r="F13" s="5">
-        <v>12</v>
-      </c>
-      <c r="G13" s="5">
-        <v>3</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="5" customFormat="1">
-      <c r="A14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
-        <v>17</v>
-      </c>
-      <c r="E14" s="5">
-        <v>46</v>
-      </c>
-      <c r="F14" s="5">
-        <v>40</v>
-      </c>
-      <c r="G14" s="5">
-        <v>8</v>
-      </c>
-      <c r="H14" s="5">
-        <v>2</v>
-      </c>
-      <c r="I14" s="5">
-        <v>1</v>
-      </c>
-      <c r="J14" s="5">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="5" customFormat="1">
-      <c r="A15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="5">
-        <v>1</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5">
-        <v>7</v>
-      </c>
-      <c r="E15" s="5">
-        <v>19</v>
-      </c>
-      <c r="F15" s="5">
-        <v>16</v>
-      </c>
-      <c r="G15" s="5">
-        <v>6</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
-        <v>0</v>
-      </c>
-      <c r="J15" s="5">
+      <c r="B10" s="2">
         <v>350</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" s="5" customFormat="1">
-      <c r="A16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="5">
-        <v>4</v>
-      </c>
-      <c r="C16" s="5">
-        <v>4</v>
-      </c>
-      <c r="D16" s="5">
-        <v>9</v>
-      </c>
-      <c r="E16" s="5">
-        <v>24</v>
-      </c>
-      <c r="F16" s="5">
-        <v>15</v>
-      </c>
-      <c r="G16" s="5">
-        <v>14</v>
-      </c>
-      <c r="H16" s="5">
-        <v>9</v>
-      </c>
-      <c r="I16" s="5">
-        <v>14</v>
-      </c>
-      <c r="J16" s="5">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="2" customFormat="1">
-      <c r="A17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="2">
-        <v>70</v>
-      </c>
-      <c r="C17" s="2">
-        <v>70</v>
-      </c>
-      <c r="D17" s="2">
-        <v>70</v>
-      </c>
-      <c r="E17" s="2">
-        <v>70</v>
-      </c>
-      <c r="F17" s="2">
-        <v>70</v>
-      </c>
-      <c r="G17" s="2">
-        <v>70</v>
-      </c>
-      <c r="H17" s="2">
-        <v>70</v>
-      </c>
-      <c r="I17" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="2" customFormat="1">
-      <c r="A18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="2">
-        <v>140</v>
-      </c>
-      <c r="C18" s="2">
-        <v>140</v>
-      </c>
-      <c r="D18" s="2">
-        <v>140</v>
-      </c>
-      <c r="E18" s="2">
-        <v>140</v>
-      </c>
-      <c r="F18" s="2">
-        <v>140</v>
-      </c>
-      <c r="G18" s="2">
-        <v>140</v>
-      </c>
-      <c r="H18" s="2">
-        <v>140</v>
-      </c>
-      <c r="I18" s="2">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="2" customFormat="1">
-      <c r="A19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="2">
-        <v>210</v>
-      </c>
-      <c r="C19" s="2">
-        <v>210</v>
-      </c>
-      <c r="D19" s="2">
-        <v>210</v>
-      </c>
-      <c r="E19" s="2">
-        <v>210</v>
-      </c>
-      <c r="F19" s="2">
-        <v>210</v>
-      </c>
-      <c r="G19" s="2">
-        <v>210</v>
-      </c>
-      <c r="H19" s="2">
-        <v>210</v>
-      </c>
-      <c r="I19" s="2">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="2" customFormat="1">
-      <c r="A20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="2">
-        <v>280</v>
-      </c>
-      <c r="C20" s="2">
-        <v>280</v>
-      </c>
-      <c r="D20" s="2">
-        <v>280</v>
-      </c>
-      <c r="E20" s="2">
-        <v>280</v>
-      </c>
-      <c r="F20" s="2">
-        <v>280</v>
-      </c>
-      <c r="G20" s="2">
-        <v>280</v>
-      </c>
-      <c r="H20" s="2">
-        <v>280</v>
-      </c>
-      <c r="I20" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="2" customFormat="1">
-      <c r="A21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="2">
+      <c r="C10" s="2">
         <v>350</v>
       </c>
-      <c r="C21" s="2">
+      <c r="D10" s="2">
         <v>350</v>
       </c>
-      <c r="D21" s="2">
+      <c r="E10" s="2">
         <v>350</v>
       </c>
-      <c r="E21" s="2">
+      <c r="F10" s="2">
         <v>350</v>
       </c>
-      <c r="F21" s="2">
+      <c r="G10" s="2">
         <v>350</v>
       </c>
-      <c r="G21" s="2">
+      <c r="H10" s="2">
         <v>350</v>
       </c>
-      <c r="H21" s="2">
+      <c r="I10" s="2">
         <v>350</v>
       </c>
-      <c r="I21" s="2">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="2" customFormat="1"/>
+    </row>
+    <row r="11" spans="1:10" s="2" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
